--- a/stage_1/Basic_Management_Tools/Basic_management_tools.xlsx
+++ b/stage_1/Basic_Management_Tools/Basic_management_tools.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_1\Basic_Management_Tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D96A07-9F17-4886-8E60-422A6AA401F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB83EB42-24BE-44FB-8DD3-9E7B22653D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -104,7 +104,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Gill Sans MT"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -112,20 +112,26 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Gill Sans MT"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -133,16 +139,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -161,9 +184,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Dividend">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Dividend">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -171,83 +194,50 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="3D3D3D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EBEBEB"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4D1434"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="903163"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="B2324B"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="969FA7"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="66B1CE"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="40619D"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="828282"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Dividend">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Gill Sans MT" panose="020B0502020104020203"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Grek" typeface="Corbel"/>
+        <a:font script="Cyrl" typeface="Corbel"/>
+        <a:font script="Jpan" typeface="HGｺﾞｼｯｸE"/>
+        <a:font script="Hang" typeface="휴먼매직체"/>
+        <a:font script="Hans" typeface="华文中宋"/>
+        <a:font script="Hant" typeface="微軟正黑體"/>
+        <a:font script="Arab" typeface="Majalla UI"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Cordia New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -268,12 +258,49 @@
         <a:font script="Laoo" typeface="DokChampa"/>
         <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Viet" typeface="Tahoma"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Gill Sans MT" panose="020B0502020104020203"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Grek" typeface="Corbel"/>
+        <a:font script="Cyrl" typeface="Corbel"/>
+        <a:font script="Jpan" typeface="HGｺﾞｼｯｸE"/>
+        <a:font script="Hang" typeface="휴먼매직체"/>
+        <a:font script="Hans" typeface="华文中宋"/>
+        <a:font script="Hant" typeface="微軟正黑體"/>
+        <a:font script="Arab" typeface="Majalla UI"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Tahoma"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Dividend">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -282,49 +309,32 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="68000"/>
+                <a:alpha val="90000"/>
+                <a:lumMod val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="90000"/>
+                <a:lumMod val="95000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="98000"/>
+                <a:lumMod val="110000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="84000">
+              <a:schemeClr val="phClr">
+                <a:shade val="90000"/>
+                <a:lumMod val="88000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -332,26 +342,25 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="rnd" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:lumMod val="90000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="25400" cap="rnd" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -359,54 +368,76 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="55000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="88900" dist="38100" dir="5040000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="60000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="tl">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="38100" h="50800"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="90000"/>
+                <a:lumMod val="110000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="88000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="88000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="90000"/>
+                <a:lumMod val="110000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="98000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="86000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="100000" b="100000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -415,7 +446,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Dividend" id="{9697A71B-4AB7-4A1A-BD5B-BB2D22835B57}" vid="{C21699FF-00E4-43C8-BBCC-D7E5536C3717}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -425,20 +456,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -458,14 +489,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>101</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D2">
@@ -478,7 +509,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>102</v>
       </c>
@@ -498,7 +529,7 @@
         <v>44822</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>103</v>
       </c>
@@ -518,7 +549,7 @@
         <v>44260</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>104</v>
       </c>
@@ -538,14 +569,14 @@
         <v>45099</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>105</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D6">
@@ -558,7 +589,7 @@
         <v>44145</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>106</v>
       </c>
@@ -578,7 +609,7 @@
         <v>44407</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>107</v>
       </c>

--- a/stage_1/Basic_Management_Tools/Basic_management_tools.xlsx
+++ b/stage_1/Basic_Management_Tools/Basic_management_tools.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Excel-from-scratch\stage_1\Basic_Management_Tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB83EB42-24BE-44FB-8DD3-9E7B22653D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48E8ED5-8637-439F-9661-47EA15FDC3FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -457,7 +457,11 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <pane xSplit="9020" ySplit="4290"/>
+      <selection activeCell="D11" sqref="D11"/>
+      <selection pane="topRight" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.5"/>
